--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
@@ -1445,7 +1445,7 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>100.6</v>
+        <v>100.61</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>101.06</v>
+        <v>100.96</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>103.55</v>
+        <v>103.58</v>
       </c>
     </row>
     <row r="82" spans="1:2">

--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
@@ -1305,7 +1305,7 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>96.91</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C62">
         <v>111.06</v>
@@ -1316,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>99.29000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C63">
         <v>109.91</v>
@@ -1327,7 +1327,7 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>100.05</v>
+        <v>100.06</v>
       </c>
       <c r="C64">
         <v>112.47</v>
@@ -1371,7 +1371,7 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>99.27</v>
+        <v>99.28</v>
       </c>
       <c r="C68">
         <v>108.22</v>
@@ -1445,7 +1445,7 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>100.61</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1485,7 +1485,7 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>100.96</v>
+        <v>101.06</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>103.58</v>
+        <v>103.57</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>94.70999999999999</v>
+        <v>94.72</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>106.03</v>
+        <v>106.02</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,7 +1308,7 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>96.90000000000001</v>
+        <v>96.91</v>
       </c>
       <c r="C62">
         <v>111.06</v>
@@ -1316,7 +1319,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>99.3</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="C63">
         <v>109.91</v>
@@ -1327,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>100.06</v>
+        <v>100.05</v>
       </c>
       <c r="C64">
         <v>112.47</v>
@@ -1371,7 +1374,7 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>99.28</v>
+        <v>99.27</v>
       </c>
       <c r="C68">
         <v>108.22</v>
@@ -1477,7 +1480,7 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>99.65000000000001</v>
+        <v>99.66</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1493,7 +1496,7 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>103.57</v>
+        <v>103.53</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1509,7 +1512,7 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>94.72</v>
+        <v>94.70999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1541,7 +1544,15 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>106.02</v>
+        <v>106.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>110.47</v>
       </c>
     </row>
   </sheetData>
